--- a/MVP/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -193,6 +193,18 @@
     <t>13-018446</t>
   </si>
   <si>
+    <t>13-018716</t>
+  </si>
+  <si>
+    <t>13-018717</t>
+  </si>
+  <si>
+    <t>13-018718</t>
+  </si>
+  <si>
+    <t>13-018720</t>
+  </si>
+  <si>
     <t>MVP-PRT: PRECISION MICRO 4</t>
   </si>
   <si>
@@ -338,6 +350,18 @@
   </si>
   <si>
     <t>MVP-PRT: PATCH PANEL FOR PSU</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PELTIER PSU SUPPORT</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PELTIER HOLDER BRACKET</t>
+  </si>
+  <si>
+    <t>MVP-PRT: TC PLATE</t>
+  </si>
+  <si>
+    <t>MVP-PRT: TC HOLDER BRACKET</t>
   </si>
   <si>
     <t>VITROTEM</t>
@@ -745,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -802,16 +826,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -825,10 +849,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -845,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -868,16 +892,16 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -891,19 +915,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -917,19 +941,19 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -943,19 +967,19 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -969,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -995,19 +1019,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1021,19 +1045,19 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1047,19 +1071,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1073,19 +1097,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1099,19 +1123,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1125,19 +1149,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1151,19 +1175,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1177,19 +1201,19 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1203,19 +1227,19 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1229,19 +1253,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1255,19 +1279,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1281,19 +1305,19 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1307,19 +1331,19 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -1333,19 +1357,19 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1359,19 +1383,19 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
@@ -1385,19 +1409,19 @@
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1411,19 +1435,19 @@
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1437,19 +1461,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1463,19 +1487,19 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1489,19 +1513,19 @@
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1515,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1541,19 +1565,19 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1567,19 +1591,19 @@
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1593,19 +1617,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1619,19 +1643,19 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1645,19 +1669,19 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1671,19 +1695,19 @@
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1697,19 +1721,19 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1723,19 +1747,19 @@
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -1749,19 +1773,19 @@
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -1775,19 +1799,19 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1801,19 +1825,19 @@
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -1827,19 +1851,19 @@
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1853,19 +1877,19 @@
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1879,19 +1903,19 @@
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I44" s="1">
         <v>4</v>
@@ -1905,19 +1929,19 @@
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -1931,19 +1955,19 @@
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
@@ -1957,19 +1981,19 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -1983,19 +2007,19 @@
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2009,19 +2033,19 @@
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I49" s="1">
         <v>4</v>
@@ -2035,21 +2059,113 @@
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1">
+        <v>130</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I50" s="1">
+      <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1">
+        <v>132</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="1">
         <v>1</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -49,15 +49,6 @@
     <t>13-018219</t>
   </si>
   <si>
-    <t>13-018436</t>
-  </si>
-  <si>
-    <t>13-018437</t>
-  </si>
-  <si>
-    <t>13-018438</t>
-  </si>
-  <si>
     <t>13-018218</t>
   </si>
   <si>
@@ -205,18 +196,15 @@
     <t>13-018720</t>
   </si>
   <si>
+    <t>13-018737</t>
+  </si>
+  <si>
+    <t>13-018738</t>
+  </si>
+  <si>
     <t>MVP-PRT: PRECISION MICRO 4</t>
   </si>
   <si>
-    <t>MVP-PRT: TEMPERATURE PCB</t>
-  </si>
-  <si>
-    <t>MVP-PRT: FLUIDICS PCB</t>
-  </si>
-  <si>
-    <t>MVP-PRT: ACTUATOR PCB</t>
-  </si>
-  <si>
     <t>MVP-PRT: CARTRIDGE</t>
   </si>
   <si>
@@ -364,12 +352,21 @@
     <t>MVP-PRT: TC HOLDER BRACKET</t>
   </si>
   <si>
+    <t>MVP: PCB</t>
+  </si>
+  <si>
+    <t>MVP: PCB BRACKET</t>
+  </si>
+  <si>
     <t>VITROTEM</t>
   </si>
   <si>
     <t>13-018307</t>
   </si>
   <si>
+    <t>PRECISION MICRO</t>
+  </si>
+  <si>
     <t>LASERBEEST</t>
   </si>
   <si>
@@ -379,18 +376,18 @@
     <t>SUPE</t>
   </si>
   <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>PMMA</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
     <t>6061 Alloy</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>PMMA</t>
-  </si>
-  <si>
-    <t>Copper</t>
-  </si>
-  <si>
     <t>1060 Alloy</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>AISI Type 316L stainless steel</t>
+  </si>
+  <si>
+    <t>Material &lt;not specified&gt;</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -784,7 +784,7 @@
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="42.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
@@ -826,16 +826,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -849,13 +852,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -869,16 +878,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -892,16 +904,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -915,19 +930,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -941,19 +956,19 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -967,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -993,10 +1008,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -1005,10 +1020,10 @@
         <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1019,16 +1034,16 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>122</v>
@@ -1045,16 +1060,16 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>122</v>
@@ -1071,10 +1086,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
@@ -1083,10 +1098,10 @@
         <v>118</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1097,19 +1112,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1123,19 +1138,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1149,19 +1164,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1175,19 +1190,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1201,16 +1216,16 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>120</v>
@@ -1227,19 +1242,19 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1253,22 +1268,22 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -1279,19 +1294,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1305,22 +1320,22 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -1331,22 +1346,22 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1357,19 +1372,19 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1383,22 +1398,22 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -1409,19 +1424,19 @@
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1435,19 +1450,19 @@
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1461,19 +1476,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1487,19 +1502,19 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1513,19 +1528,19 @@
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1539,19 +1554,19 @@
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1565,19 +1580,19 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1591,19 +1606,19 @@
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1617,19 +1632,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1643,19 +1658,19 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1669,19 +1684,19 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1695,19 +1710,19 @@
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1721,19 +1736,19 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1747,19 +1762,19 @@
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -1773,19 +1788,19 @@
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -1799,19 +1814,19 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1825,22 +1840,22 @@
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:9">
@@ -1851,19 +1866,19 @@
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1877,19 +1892,19 @@
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1903,22 +1918,22 @@
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:9">
@@ -1929,19 +1944,19 @@
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -1955,22 +1970,22 @@
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:9">
@@ -1981,19 +1996,19 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -2001,25 +2016,22 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2027,48 +2039,42 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>120</v>
       </c>
       <c r="I49" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>120</v>
@@ -2085,16 +2091,16 @@
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2108,16 +2114,13 @@
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2131,41 +2134,18 @@
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="1">
-        <v>133</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I54" s="1">
         <v>1</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="129">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -202,6 +202,9 @@
     <t>13-018738</t>
   </si>
   <si>
+    <t>13-018739</t>
+  </si>
+  <si>
     <t>MVP-PRT: PRECISION MICRO 4</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>MVP: PCB BRACKET</t>
+  </si>
+  <si>
+    <t>MVP: ARUINO BRACKET</t>
   </si>
   <si>
     <t>VITROTEM</t>
@@ -769,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -826,19 +832,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -852,19 +858,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -878,19 +884,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -904,19 +910,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -930,19 +936,19 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -956,19 +962,19 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -982,19 +988,19 @@
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1008,19 +1014,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1034,19 +1040,19 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1060,19 +1066,19 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1086,19 +1092,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1112,19 +1118,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1138,19 +1144,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1164,19 +1170,19 @@
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1190,19 +1196,19 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1216,19 +1222,19 @@
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1242,19 +1248,19 @@
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1268,19 +1274,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1294,19 +1300,19 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1320,19 +1326,19 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -1346,19 +1352,19 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1372,19 +1378,19 @@
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1398,19 +1404,19 @@
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1424,19 +1430,19 @@
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1450,19 +1456,19 @@
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1476,19 +1482,19 @@
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1502,19 +1508,19 @@
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1528,19 +1534,19 @@
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1554,19 +1560,19 @@
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1580,19 +1586,19 @@
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1606,19 +1612,19 @@
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1632,19 +1638,19 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1658,19 +1664,19 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1684,19 +1690,19 @@
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1710,19 +1716,19 @@
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1736,19 +1742,19 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1762,19 +1768,19 @@
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -1788,19 +1794,19 @@
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -1814,19 +1820,19 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1840,19 +1846,19 @@
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I41" s="1">
         <v>4</v>
@@ -1866,19 +1872,19 @@
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1892,19 +1898,19 @@
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1918,19 +1924,19 @@
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
@@ -1944,19 +1950,19 @@
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -1970,19 +1976,19 @@
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I46" s="1">
         <v>4</v>
@@ -1996,19 +2002,19 @@
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -2016,22 +2022,22 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -2039,22 +2045,22 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -2062,22 +2068,22 @@
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2085,22 +2091,22 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2108,16 +2114,16 @@
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>59</v>
@@ -2128,24 +2134,47 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="1">
+        <v>134</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" s="1">
         <v>1</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/VITROTEM.xlsx
+++ b/MVP/SHOPPING_LISTS/VITROTEM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="150">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -115,15 +115,9 @@
     <t>13-018266</t>
   </si>
   <si>
-    <t>13-018267</t>
-  </si>
-  <si>
     <t>13-018268</t>
   </si>
   <si>
-    <t>13-018270</t>
-  </si>
-  <si>
     <t>13-018271</t>
   </si>
   <si>
@@ -184,6 +178,27 @@
     <t>13-018446</t>
   </si>
   <si>
+    <t>13-018742</t>
+  </si>
+  <si>
+    <t>13-018745</t>
+  </si>
+  <si>
+    <t>13-018746</t>
+  </si>
+  <si>
+    <t>13-018747</t>
+  </si>
+  <si>
+    <t>13-018748</t>
+  </si>
+  <si>
+    <t>13-018749</t>
+  </si>
+  <si>
+    <t>13-018725</t>
+  </si>
+  <si>
     <t>13-018716</t>
   </si>
   <si>
@@ -199,10 +214,25 @@
     <t>13-018737</t>
   </si>
   <si>
+    <t>13-018739</t>
+  </si>
+  <si>
     <t>13-018738</t>
   </si>
   <si>
-    <t>13-018739</t>
+    <t>13-018728</t>
+  </si>
+  <si>
+    <t>13-018729</t>
+  </si>
+  <si>
+    <t>13-018743</t>
+  </si>
+  <si>
+    <t>13-019044</t>
+  </si>
+  <si>
+    <t>13-019045</t>
   </si>
   <si>
     <t>MVP-PRT: PRECISION MICRO 4</t>
@@ -274,15 +304,9 @@
     <t>MVP-PRT: HEATPIPE CLAMP B</t>
   </si>
   <si>
-    <t>MVP-PRT: LONG AIR</t>
-  </si>
-  <si>
     <t>MVP-PRT: HEATSINK</t>
   </si>
   <si>
-    <t>MVP-PRT: SHORT AIR</t>
-  </si>
-  <si>
     <t>MVP-PRT: FLOWCELL COVER</t>
   </si>
   <si>
@@ -343,6 +367,27 @@
     <t>MVP-PRT: PATCH PANEL FOR PSU</t>
   </si>
   <si>
+    <t>MVP-PRT: WATER TRAY</t>
+  </si>
+  <si>
+    <t>MVP-PRT: TOP MOTOR STOP</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER A</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER B</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER C</t>
+  </si>
+  <si>
+    <t>MVP-PRT: COVER CONNECTOR</t>
+  </si>
+  <si>
+    <t>MVP-PRT: MEMBRANE PUMP BRACKET</t>
+  </si>
+  <si>
     <t>MVP-PRT: PELTIER PSU SUPPORT</t>
   </si>
   <si>
@@ -358,10 +403,25 @@
     <t>MVP: PCB</t>
   </si>
   <si>
+    <t>MVP: ARUINO BRACKET</t>
+  </si>
+  <si>
     <t>MVP: PCB BRACKET</t>
   </si>
   <si>
-    <t>MVP: ARUINO BRACKET</t>
+    <t>MVP-PRT: PUMP BRACKET A</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PUMP BRACKET B</t>
+  </si>
+  <si>
+    <t>MVP-PRT: HORIZONTAL MOTOR STOP</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PCB 02 MOUNT</t>
+  </si>
+  <si>
+    <t>MVP-PRT: RELAY MOUNT</t>
   </si>
   <si>
     <t>VITROTEM</t>
@@ -404,6 +464,9 @@
   </si>
   <si>
     <t>Material &lt;not specified&gt;</t>
+  </si>
+  <si>
+    <t>PLA</t>
   </si>
 </sst>
 </file>
@@ -775,7 +838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -826,25 +889,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -852,25 +915,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -878,25 +941,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -904,25 +967,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -930,25 +993,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -956,25 +1019,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -982,25 +1045,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1008,25 +1071,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1034,25 +1097,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -1060,25 +1123,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -1086,25 +1149,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1112,25 +1175,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1138,25 +1201,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1164,25 +1227,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1190,25 +1253,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1216,25 +1279,25 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1242,25 +1305,25 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1268,25 +1331,25 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1294,25 +1357,25 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1320,25 +1383,25 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
@@ -1346,25 +1409,25 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1372,25 +1435,25 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1398,25 +1461,25 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1424,25 +1487,25 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1450,25 +1513,25 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1476,25 +1539,25 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1502,25 +1565,25 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1528,25 +1591,25 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1554,25 +1617,25 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -1580,25 +1643,25 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1606,25 +1669,25 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1632,25 +1695,25 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1658,25 +1721,25 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1684,25 +1747,25 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1710,25 +1773,25 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1736,25 +1799,25 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1762,25 +1825,25 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -1788,51 +1851,51 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1840,51 +1903,51 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1892,25 +1955,25 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1918,51 +1981,51 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -1970,51 +2033,45 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="I46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -2022,68 +2079,77 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -2091,65 +2157,68 @@
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="1">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="I51" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H52" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2157,24 +2226,251 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="1">
+        <v>135</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="1">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I54" s="1">
+      <c r="E58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="1">
+        <v>138</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="1">
+        <v>139</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="1">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="1">
+        <v>141</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="1">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="1">
+        <v>143</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="1">
         <v>1</v>
       </c>
     </row>
